--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15960"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,28 +130,28 @@
     <t>技能表</t>
   </si>
   <si>
-    <t>TbSkillBuff</t>
+    <t>TbBuff</t>
   </si>
   <si>
-    <t>Skill/SkillBuff.xlsx</t>
+    <t>Skill/Buff.xlsx</t>
   </si>
   <si>
     <t>Buff表</t>
   </si>
   <si>
-    <t>TbSkillBullet</t>
+    <t>TbBullet</t>
   </si>
   <si>
-    <t>Skill/SkillBullet.xlsx</t>
+    <t>Skill/Bullet.xlsx</t>
   </si>
   <si>
     <t>子弹表</t>
   </si>
   <si>
-    <t>TbSkillEffect</t>
+    <t>TbEffect</t>
   </si>
   <si>
-    <t>Skill/SkillEffect.xlsx</t>
+    <t>Skill/Effect.xlsx</t>
   </si>
   <si>
     <t>效果表</t>
@@ -166,19 +166,19 @@
     <t>技能相关资源表</t>
   </si>
   <si>
-    <t>TbSkillSearch</t>
+    <t>TbSearch</t>
   </si>
   <si>
-    <t>Skill/SkillSearch.xlsx</t>
+    <t>Skill/Search.xlsx</t>
   </si>
   <si>
     <t>目标搜索表</t>
   </si>
   <si>
-    <t>TbSkillTrack</t>
+    <t>TbTrack</t>
   </si>
   <si>
-    <t>Skill/SkillTrack.xlsx</t>
+    <t>Skill/Track.xlsx</t>
   </si>
   <si>
     <t>弹道轨迹表</t>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:K1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="C8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>TbSkillBuffRow</v>
+        <v>TbBuffRow</v>
       </c>
       <c r="D8" s="4" t="b">
         <v>1</v>
@@ -1393,7 +1393,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>TbSkillBuff</v>
+        <v>TbBuff</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>TbSkillBulletRow</v>
+        <v>TbBulletRow</v>
       </c>
       <c r="D9" s="4" t="b">
         <v>1</v>
@@ -1419,7 +1419,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>TbSkillBullet</v>
+        <v>TbBullet</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>TbSkillEffectRow</v>
+        <v>TbEffectRow</v>
       </c>
       <c r="D10" s="4" t="b">
         <v>1</v>
@@ -1445,7 +1445,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>TbSkillEffect</v>
+        <v>TbEffect</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1463,7 +1463,6 @@
       <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="2"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
@@ -1482,7 +1481,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>TbSkillSearchRow</v>
+        <v>TbSearchRow</v>
       </c>
       <c r="D12" s="4" t="b">
         <v>1</v>
@@ -1490,7 +1489,6 @@
       <c r="E12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="2"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
@@ -1499,7 +1497,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>TbSkillSearch</v>
+        <v>TbSearch</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1509,7 +1507,7 @@
       </c>
       <c r="C13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>TbSkillTrackRow</v>
+        <v>TbTrackRow</v>
       </c>
       <c r="D13" s="4" t="b">
         <v>1</v>
@@ -1517,7 +1515,6 @@
       <c r="E13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="2"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
@@ -1526,7 +1523,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>TbSkillTrack</v>
+        <v>TbTrack</v>
       </c>
     </row>
     <row r="14" spans="1:11">

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowWidth="28000" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15900"/>
+    <workbookView windowHeight="18060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -226,13 +226,13 @@
     <t>TbDrop</t>
   </si>
   <si>
-    <t>Drop/Drop.xlsx</t>
+    <t>Unit/Drop.xlsx</t>
   </si>
   <si>
     <t>TbRandomSet</t>
   </si>
   <si>
-    <t>Drop/RandomSet.xlsx</t>
+    <t>Random/RandomSet.xlsx</t>
   </si>
   <si>
     <t>随即掉落组</t>
@@ -241,7 +241,7 @@
     <t>TbRandomBag</t>
   </si>
   <si>
-    <t>Drop/RandomBag.xlsx</t>
+    <t>Random/RandomBag.xlsx</t>
   </si>
   <si>
     <t>随即掉落包</t>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -245,6 +245,15 @@
   </si>
   <si>
     <t>随即掉落包</t>
+  </si>
+  <si>
+    <t>TbMap</t>
+  </si>
+  <si>
+    <t>Map.xlsx</t>
+  </si>
+  <si>
+    <t>战斗地图表</t>
   </si>
 </sst>
 </file>
@@ -1204,10 +1213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1325,7 +1334,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" ref="C4:C20" si="0">IF(B4&lt;&gt;"",_xlfn.CONCAT(B4,"Row"),"")</f>
+        <f t="shared" ref="C4:C21" si="0">IF(B4&lt;&gt;"",_xlfn.CONCAT(B4,"Row"),"")</f>
         <v>TbAIRow</v>
       </c>
       <c r="D4" s="2" t="b">
@@ -1341,7 +1350,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="str">
-        <f t="shared" ref="K4:K20" si="2">IF(B4&lt;&gt;"",B4,"")</f>
+        <f t="shared" ref="K4:K21" si="2">IF(B4&lt;&gt;"",B4,"")</f>
         <v>TbAI</v>
       </c>
     </row>
@@ -1785,6 +1794,33 @@
         <v>TbRandomBag</v>
       </c>
     </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TbMapRow</v>
+      </c>
+      <c r="D21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>TbMap</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
   <si>
     <t>##var</t>
   </si>
@@ -245,15 +245,6 @@
   </si>
   <si>
     <t>随即掉落包</t>
-  </si>
-  <si>
-    <t>TbMap</t>
-  </si>
-  <si>
-    <t>Map.xlsx</t>
-  </si>
-  <si>
-    <t>战斗地图表</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1204,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="$A21:$XFD21"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1794,33 +1785,6 @@
         <v>TbRandomBag</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TbMapRow</v>
-      </c>
-      <c r="D21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TbMap</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>Unit/Drop.xlsx</t>
+  </si>
+  <si>
+    <t>TbBlock</t>
+  </si>
+  <si>
+    <t>Unit/Block.xlsx</t>
+  </si>
+  <si>
+    <t>地块表</t>
   </si>
   <si>
     <t>TbRandomSet</t>
@@ -1204,10 +1213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1738,7 +1747,7 @@
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>TbRandomSetRow</v>
+        <v>TbBlockRow</v>
       </c>
       <c r="D19" s="2" t="b">
         <v>1</v>
@@ -1755,7 +1764,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>TbRandomSet</v>
+        <v>TbBlock</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1764,8 +1773,8 @@
         <v>74</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TbRandomBagRow</v>
+        <f>IF(B20&lt;&gt;"",_xlfn.CONCAT(B20,"Row"),"")</f>
+        <v>TbRandomSetRow</v>
       </c>
       <c r="D20" s="2" t="b">
         <v>1</v>
@@ -1781,7 +1790,34 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B20&lt;&gt;"",B20,"")</f>
+        <v>TbRandomSet</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f>IF(B21&lt;&gt;"",_xlfn.CONCAT(B21,"Row"),"")</f>
+        <v>TbRandomBagRow</v>
+      </c>
+      <c r="D21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="str">
+        <f>IF(B21&lt;&gt;"",B21,"")</f>
         <v>TbRandomBag</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t>##var</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>Unit/Soldier.xlsx</t>
-  </si>
-  <si>
-    <t>Id+level</t>
   </si>
   <si>
     <t>士兵表</t>
@@ -1216,7 +1213,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1670,13 +1667,11 @@
       <c r="E16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="F16" s="3"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="str">
@@ -1687,7 +1682,7 @@
     <row r="17" spans="1:11">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1697,15 +1692,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="str">
@@ -1716,7 +1709,7 @@
     <row r="18" spans="1:11">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1726,13 +1719,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="str">
@@ -1743,7 +1736,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1753,13 +1746,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="str">
@@ -1770,54 +1763,54 @@
     <row r="20" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>IF(B20&lt;&gt;"",_xlfn.CONCAT(B20,"Row"),"")</f>
+        <f t="shared" si="0"/>
         <v>TbRandomSetRow</v>
       </c>
       <c r="D20" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="str">
-        <f>IF(B20&lt;&gt;"",B20,"")</f>
+        <f t="shared" si="2"/>
         <v>TbRandomSet</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>IF(B21&lt;&gt;"",_xlfn.CONCAT(B21,"Row"),"")</f>
+        <f t="shared" si="0"/>
         <v>TbRandomBagRow</v>
       </c>
       <c r="D21" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="str">
-        <f>IF(B21&lt;&gt;"",B21,"")</f>
+        <f t="shared" si="2"/>
         <v>TbRandomBag</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>##var</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>随即掉落包</t>
+  </si>
+  <si>
+    <t>TbStage</t>
+  </si>
+  <si>
+    <t>Stage.xlsx</t>
+  </si>
+  <si>
+    <t>战斗关卡表</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1219,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1331,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" ref="C4:C21" si="0">IF(B4&lt;&gt;"",_xlfn.CONCAT(B4,"Row"),"")</f>
+        <f t="shared" ref="C4:C22" si="0">IF(B4&lt;&gt;"",_xlfn.CONCAT(B4,"Row"),"")</f>
         <v>TbAIRow</v>
       </c>
       <c r="D4" s="2" t="b">
@@ -1347,7 +1356,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="str">
-        <f t="shared" ref="K4:K21" si="2">IF(B4&lt;&gt;"",B4,"")</f>
+        <f t="shared" ref="K4:K22" si="2">IF(B4&lt;&gt;"",B4,"")</f>
         <v>TbAI</v>
       </c>
     </row>
@@ -1814,6 +1823,33 @@
         <v>TbRandomBag</v>
       </c>
     </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>TbStageRow</v>
+      </c>
+      <c r="D22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>TbStage</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15900"/>
+    <workbookView windowHeight="15820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -220,10 +220,13 @@
     <t>建筑表</t>
   </si>
   <si>
-    <t>TbDrop</t>
-  </si>
-  <si>
-    <t>Unit/Drop.xlsx</t>
+    <t>TbItem</t>
+  </si>
+  <si>
+    <t>Unit/Item.xlsx</t>
+  </si>
+  <si>
+    <t>物品表</t>
   </si>
   <si>
     <t>TbBlock</t>
@@ -1222,7 +1225,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1722,7 +1725,7 @@
       </c>
       <c r="C18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>TbDropRow</v>
+        <v>TbItemRow</v>
       </c>
       <c r="D18" s="2" t="b">
         <v>1</v>
@@ -1734,18 +1737,18 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>TbDrop</v>
+        <v>TbItem</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1755,13 +1758,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="str">
@@ -1772,7 +1775,7 @@
     <row r="20" spans="1:11">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1782,13 +1785,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="str">
@@ -1799,7 +1802,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1809,13 +1812,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="str">
@@ -1826,7 +1829,7 @@
     <row r="22" spans="1:11">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1836,13 +1839,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2" t="str">

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -1225,7 +1225,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1544,9 +1544,7 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>49</v>
       </c>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -173,15 +173,6 @@
   </si>
   <si>
     <t>目标搜索表</t>
-  </si>
-  <si>
-    <t>TbTrack</t>
-  </si>
-  <si>
-    <t>Skill/Track.xlsx</t>
-  </si>
-  <si>
-    <t>弹道轨迹表</t>
   </si>
   <si>
     <t>TbHero</t>
@@ -1222,10 +1213,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1587,8 +1578,8 @@
         <v>53</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TbTrackRow</v>
+        <f>IF(B13&lt;&gt;"",_xlfn.CONCAT(B13,"Row"),"")</f>
+        <v>TbHeroRow</v>
       </c>
       <c r="D13" s="2" t="b">
         <v>1</v>
@@ -1604,8 +1595,8 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TbTrack</v>
+        <f>IF(B13&lt;&gt;"",B13,"")</f>
+        <v>TbHero</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1614,8 +1605,8 @@
         <v>56</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TbHeroRow</v>
+        <f>IF(B14&lt;&gt;"",_xlfn.CONCAT(B14,"Row"),"")</f>
+        <v>TbHeroSkinRow</v>
       </c>
       <c r="D14" s="2" t="b">
         <v>1</v>
@@ -1631,8 +1622,8 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TbHero</v>
+        <f>IF(B14&lt;&gt;"",B14,"")</f>
+        <v>TbHeroSkin</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1641,8 +1632,8 @@
         <v>59</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TbHeroSkinRow</v>
+        <f>IF(B15&lt;&gt;"",_xlfn.CONCAT(B15,"Row"),"")</f>
+        <v>TbSoldierRow</v>
       </c>
       <c r="D15" s="2" t="b">
         <v>1</v>
@@ -1658,8 +1649,8 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TbHeroSkin</v>
+        <f>IF(B15&lt;&gt;"",B15,"")</f>
+        <v>TbSoldier</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1668,8 +1659,8 @@
         <v>62</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TbSoldierRow</v>
+        <f>IF(B16&lt;&gt;"",_xlfn.CONCAT(B16,"Row"),"")</f>
+        <v>TbBuildingRow</v>
       </c>
       <c r="D16" s="2" t="b">
         <v>1</v>
@@ -1685,8 +1676,8 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TbSoldier</v>
+        <f>IF(B16&lt;&gt;"",B16,"")</f>
+        <v>TbBuilding</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1695,8 +1686,8 @@
         <v>65</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TbBuildingRow</v>
+        <f>IF(B17&lt;&gt;"",_xlfn.CONCAT(B17,"Row"),"")</f>
+        <v>TbItemRow</v>
       </c>
       <c r="D17" s="2" t="b">
         <v>1</v>
@@ -1712,8 +1703,8 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TbBuilding</v>
+        <f>IF(B17&lt;&gt;"",B17,"")</f>
+        <v>TbItem</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1722,8 +1713,8 @@
         <v>68</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TbItemRow</v>
+        <f>IF(B18&lt;&gt;"",_xlfn.CONCAT(B18,"Row"),"")</f>
+        <v>TbBlockRow</v>
       </c>
       <c r="D18" s="2" t="b">
         <v>1</v>
@@ -1739,8 +1730,8 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TbItem</v>
+        <f>IF(B18&lt;&gt;"",B18,"")</f>
+        <v>TbBlock</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1749,8 +1740,8 @@
         <v>71</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TbBlockRow</v>
+        <f>IF(B19&lt;&gt;"",_xlfn.CONCAT(B19,"Row"),"")</f>
+        <v>TbRandomSetRow</v>
       </c>
       <c r="D19" s="2" t="b">
         <v>1</v>
@@ -1766,8 +1757,8 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TbBlock</v>
+        <f>IF(B19&lt;&gt;"",B19,"")</f>
+        <v>TbRandomSet</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1776,8 +1767,8 @@
         <v>74</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TbRandomSetRow</v>
+        <f>IF(B20&lt;&gt;"",_xlfn.CONCAT(B20,"Row"),"")</f>
+        <v>TbRandomBagRow</v>
       </c>
       <c r="D20" s="2" t="b">
         <v>1</v>
@@ -1793,8 +1784,8 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TbRandomSet</v>
+        <f>IF(B20&lt;&gt;"",B20,"")</f>
+        <v>TbRandomBag</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1803,8 +1794,8 @@
         <v>77</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TbRandomBagRow</v>
+        <f>IF(B21&lt;&gt;"",_xlfn.CONCAT(B21,"Row"),"")</f>
+        <v>TbStageRow</v>
       </c>
       <c r="D21" s="2" t="b">
         <v>1</v>
@@ -1820,34 +1811,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TbRandomBag</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>TbStageRow</v>
-      </c>
-      <c r="D22" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B21&lt;&gt;"",B21,"")</f>
         <v>TbStage</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>地块表</t>
+  </si>
+  <si>
+    <t>TbTrap</t>
+  </si>
+  <si>
+    <t>Unit/Trap.xlsx</t>
+  </si>
+  <si>
+    <t>机关表</t>
   </si>
   <si>
     <t>TbRandomSet</t>
@@ -1213,10 +1222,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8"/>
@@ -1578,7 +1587,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>IF(B13&lt;&gt;"",_xlfn.CONCAT(B13,"Row"),"")</f>
+        <f t="shared" si="0"/>
         <v>TbHeroRow</v>
       </c>
       <c r="D13" s="2" t="b">
@@ -1595,7 +1604,7 @@
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2" t="str">
-        <f>IF(B13&lt;&gt;"",B13,"")</f>
+        <f t="shared" si="2"/>
         <v>TbHero</v>
       </c>
     </row>
@@ -1605,7 +1614,7 @@
         <v>56</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>IF(B14&lt;&gt;"",_xlfn.CONCAT(B14,"Row"),"")</f>
+        <f t="shared" si="0"/>
         <v>TbHeroSkinRow</v>
       </c>
       <c r="D14" s="2" t="b">
@@ -1622,7 +1631,7 @@
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2" t="str">
-        <f>IF(B14&lt;&gt;"",B14,"")</f>
+        <f t="shared" si="2"/>
         <v>TbHeroSkin</v>
       </c>
     </row>
@@ -1632,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>IF(B15&lt;&gt;"",_xlfn.CONCAT(B15,"Row"),"")</f>
+        <f t="shared" si="0"/>
         <v>TbSoldierRow</v>
       </c>
       <c r="D15" s="2" t="b">
@@ -1649,7 +1658,7 @@
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2" t="str">
-        <f>IF(B15&lt;&gt;"",B15,"")</f>
+        <f t="shared" si="2"/>
         <v>TbSoldier</v>
       </c>
     </row>
@@ -1659,7 +1668,7 @@
         <v>62</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>IF(B16&lt;&gt;"",_xlfn.CONCAT(B16,"Row"),"")</f>
+        <f t="shared" si="0"/>
         <v>TbBuildingRow</v>
       </c>
       <c r="D16" s="2" t="b">
@@ -1676,7 +1685,7 @@
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2" t="str">
-        <f>IF(B16&lt;&gt;"",B16,"")</f>
+        <f t="shared" si="2"/>
         <v>TbBuilding</v>
       </c>
     </row>
@@ -1686,7 +1695,7 @@
         <v>65</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>IF(B17&lt;&gt;"",_xlfn.CONCAT(B17,"Row"),"")</f>
+        <f t="shared" si="0"/>
         <v>TbItemRow</v>
       </c>
       <c r="D17" s="2" t="b">
@@ -1703,7 +1712,7 @@
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2" t="str">
-        <f>IF(B17&lt;&gt;"",B17,"")</f>
+        <f t="shared" si="2"/>
         <v>TbItem</v>
       </c>
     </row>
@@ -1713,7 +1722,7 @@
         <v>68</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>IF(B18&lt;&gt;"",_xlfn.CONCAT(B18,"Row"),"")</f>
+        <f t="shared" si="0"/>
         <v>TbBlockRow</v>
       </c>
       <c r="D18" s="2" t="b">
@@ -1730,7 +1739,7 @@
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2" t="str">
-        <f>IF(B18&lt;&gt;"",B18,"")</f>
+        <f t="shared" si="2"/>
         <v>TbBlock</v>
       </c>
     </row>
@@ -1740,8 +1749,8 @@
         <v>71</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>IF(B19&lt;&gt;"",_xlfn.CONCAT(B19,"Row"),"")</f>
-        <v>TbRandomSetRow</v>
+        <f t="shared" si="0"/>
+        <v>TbTrapRow</v>
       </c>
       <c r="D19" s="2" t="b">
         <v>1</v>
@@ -1757,8 +1766,8 @@
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2" t="str">
-        <f>IF(B19&lt;&gt;"",B19,"")</f>
-        <v>TbRandomSet</v>
+        <f t="shared" si="2"/>
+        <v>TbTrap</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1768,7 +1777,7 @@
       </c>
       <c r="C20" s="2" t="str">
         <f>IF(B20&lt;&gt;"",_xlfn.CONCAT(B20,"Row"),"")</f>
-        <v>TbRandomBagRow</v>
+        <v>TbRandomSetRow</v>
       </c>
       <c r="D20" s="2" t="b">
         <v>1</v>
@@ -1785,7 +1794,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="str">
         <f>IF(B20&lt;&gt;"",B20,"")</f>
-        <v>TbRandomBag</v>
+        <v>TbRandomSet</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1795,7 +1804,7 @@
       </c>
       <c r="C21" s="2" t="str">
         <f>IF(B21&lt;&gt;"",_xlfn.CONCAT(B21,"Row"),"")</f>
-        <v>TbStageRow</v>
+        <v>TbRandomBagRow</v>
       </c>
       <c r="D21" s="2" t="b">
         <v>1</v>
@@ -1812,6 +1821,33 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="str">
         <f>IF(B21&lt;&gt;"",B21,"")</f>
+        <v>TbRandomBag</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f>IF(B22&lt;&gt;"",_xlfn.CONCAT(B22,"Row"),"")</f>
+        <v>TbStageRow</v>
+      </c>
+      <c r="D22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="str">
+        <f>IF(B22&lt;&gt;"",B22,"")</f>
         <v>TbStage</v>
       </c>
     </row>
